--- a/professional_CNC_log.xlsx
+++ b/professional_CNC_log.xlsx
@@ -10,7 +10,7 @@
     <sheet name="CNC_Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CNC_Log'!$A$1:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CNC_Log'!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -86,11 +86,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -169,6 +169,686 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1295400" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="971550" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="981075" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="990600" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1390650" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="819150" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1104900" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1323975" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="990600" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1266825" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1047750" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="990600" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="866775" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="923925" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="876300" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="742950" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1085850" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1209675" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="600075"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1533525" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="933450" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="866775" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1123950" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="971550" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1514475" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1209675" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +1140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -522,313 +1202,1160 @@
       </c>
     </row>
     <row r="2" ht="120" customHeight="1">
-      <c r="A2" s="2" t="n">
-        <v>22</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>电池仓</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3" ht="120" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>电池盖</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr"/>
+    </row>
+    <row r="4" ht="120" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>前壳</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5" ht="120" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>按键1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr"/>
+    </row>
+    <row r="6" ht="120" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>按键2</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7" ht="120" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>按键3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr"/>
+    </row>
+    <row r="8" ht="120" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>按键板</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>No Image Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="120" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>电源板</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr"/>
+    </row>
+    <row r="10" ht="120" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>负极簧片</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11" ht="120" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>负极接线片</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr"/>
+    </row>
+    <row r="12" ht="120" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>接口板</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13" ht="120" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>激光装饰片</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr"/>
+    </row>
+    <row r="14" ht="120" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>镜头</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
+        <is>
+          <t>No Image Available</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="120" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>镜头转接件1</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr"/>
+    </row>
+    <row r="16" ht="120" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>镜头转接件2</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17" ht="120" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>镜头转接件3</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr"/>
+    </row>
+    <row r="18" ht="120" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>机芯支架</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19" ht="120" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>散热板</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr"/>
+    </row>
+    <row r="20" ht="120" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>手柄</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21" ht="120" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>探测器板</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr"/>
+    </row>
+    <row r="22" ht="120" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>显示屏</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23" ht="120" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
           <t>显示屏壳体</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
         <is>
           <t>No Image Available</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="120" customHeight="1">
-      <c r="A3" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
+    <row r="24" ht="120" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>右饰片</t>
         </is>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr"/>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="120" customHeight="1">
-      <c r="A4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25" ht="120" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>左饰片</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="120" customHeight="1">
-      <c r="A5" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26" ht="120" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>装饰片1</t>
         </is>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="120" customHeight="1">
-      <c r="A6" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27" ht="120" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>装饰片2</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="4" t="n">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28" ht="120" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>转接座</t>
         </is>
       </c>
-      <c r="C7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="120" customHeight="1">
-      <c r="A8" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+    </row>
+    <row r="29" ht="120" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>转轴座</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="120" customHeight="1">
-      <c r="A9" s="4" t="n">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30" ht="120" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>主板</t>
         </is>
       </c>
-      <c r="C9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="120" customHeight="1">
-      <c r="A10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31" ht="120" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>主壳体</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>树脂</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>树脂</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H10"/>
+  <autoFilter ref="A1:H31"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/professional_CNC_log.xlsx
+++ b/professional_CNC_log.xlsx
@@ -305,7 +305,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="819150" cy="952500"/>
+    <ext cx="857250" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -405,34 +405,34 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="1285875" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="1266825" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1047750" cy="952500"/>
-    <pic>
-      <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -630,7 +630,7 @@
       <row>21</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1209675" cy="952500"/>
+    <ext cx="1314450" cy="942975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -1202,20 +1202,16 @@
       </c>
     </row>
     <row r="2" ht="120" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>电池仓</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
@@ -1224,7 +1220,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -1240,20 +1236,16 @@
       <c r="H2" s="2" t="inlineStr"/>
     </row>
     <row r="3" ht="120" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" s="3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
           <t>电池盖</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
@@ -1262,7 +1254,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
@@ -1278,20 +1270,16 @@
       <c r="H3" s="3" t="inlineStr"/>
     </row>
     <row r="4" ht="120" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>前壳</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
@@ -1300,7 +1288,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -1316,20 +1304,16 @@
       <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5" ht="120" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A5" s="3" t="n">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
           <t>按键1</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
@@ -1338,7 +1322,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -1354,20 +1338,16 @@
       <c r="H5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="120" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>按键2</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
@@ -1376,7 +1356,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -1392,20 +1372,16 @@
       <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A7" s="3" t="n">
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
           <t>按键3</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
@@ -1414,7 +1390,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1430,20 +1406,16 @@
       <c r="H7" s="3" t="inlineStr"/>
     </row>
     <row r="8" ht="120" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
           <t>按键板</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
@@ -1452,7 +1424,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1472,20 +1444,16 @@
       </c>
     </row>
     <row r="9" ht="120" customHeight="1">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="A9" s="3" t="n">
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
           <t>电源板</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
@@ -1494,7 +1462,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -1510,20 +1478,16 @@
       <c r="H9" s="3" t="inlineStr"/>
     </row>
     <row r="10" ht="120" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
           <t>负极簧片</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
@@ -1532,7 +1496,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1548,20 +1512,16 @@
       <c r="H10" s="2" t="inlineStr"/>
     </row>
     <row r="11" ht="120" customHeight="1">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
           <t>负极接线片</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
@@ -1570,7 +1530,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -1586,20 +1546,16 @@
       <c r="H11" s="3" t="inlineStr"/>
     </row>
     <row r="12" ht="120" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
           <t>接口板</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
@@ -1608,7 +1564,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1624,20 +1580,16 @@
       <c r="H12" s="2" t="inlineStr"/>
     </row>
     <row r="13" ht="120" customHeight="1">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" s="3" t="n">
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
           <t>激光装饰片</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
@@ -1646,7 +1598,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1662,20 +1614,16 @@
       <c r="H13" s="3" t="inlineStr"/>
     </row>
     <row r="14" ht="120" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
           <t>镜头</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
@@ -1684,7 +1632,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1704,20 +1652,16 @@
       </c>
     </row>
     <row r="15" ht="120" customHeight="1">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="A15" s="3" t="n">
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <t>镜头转接件1</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
@@ -1726,7 +1670,7 @@
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1742,20 +1686,16 @@
       <c r="H15" s="3" t="inlineStr"/>
     </row>
     <row r="16" ht="120" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
           <t>镜头转接件2</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
@@ -1764,7 +1704,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1780,20 +1720,16 @@
       <c r="H16" s="2" t="inlineStr"/>
     </row>
     <row r="17" ht="120" customHeight="1">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="A17" s="3" t="n">
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
           <t>镜头转接件3</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C17" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
@@ -1802,7 +1738,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
@@ -1818,20 +1754,16 @@
       <c r="H17" s="3" t="inlineStr"/>
     </row>
     <row r="18" ht="120" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
           <t>机芯支架</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
@@ -1840,7 +1772,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1856,20 +1788,16 @@
       <c r="H18" s="2" t="inlineStr"/>
     </row>
     <row r="19" ht="120" customHeight="1">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="A19" s="3" t="n">
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
           <t>散热板</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
@@ -1878,7 +1806,7 @@
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
@@ -1894,20 +1822,16 @@
       <c r="H19" s="3" t="inlineStr"/>
     </row>
     <row r="20" ht="120" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
           <t>手柄</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
@@ -1916,7 +1840,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1932,20 +1856,16 @@
       <c r="H20" s="2" t="inlineStr"/>
     </row>
     <row r="21" ht="120" customHeight="1">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="A21" s="3" t="n">
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
           <t>探测器板</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C21" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
@@ -1954,7 +1874,7 @@
       </c>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
@@ -1970,20 +1890,16 @@
       <c r="H21" s="3" t="inlineStr"/>
     </row>
     <row r="22" ht="120" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
           <t>显示屏</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
@@ -1992,7 +1908,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -2008,20 +1924,16 @@
       <c r="H22" s="2" t="inlineStr"/>
     </row>
     <row r="23" ht="120" customHeight="1">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A23" s="3" t="n">
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
           <t>显示屏壳体</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
@@ -2030,7 +1942,7 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -2050,20 +1962,16 @@
       </c>
     </row>
     <row r="24" ht="120" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
           <t>右饰片</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
@@ -2072,7 +1980,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -2088,20 +1996,16 @@
       <c r="H24" s="2" t="inlineStr"/>
     </row>
     <row r="25" ht="120" customHeight="1">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="A25" s="3" t="n">
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
           <t>左饰片</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
@@ -2110,7 +2014,7 @@
       </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
@@ -2126,20 +2030,16 @@
       <c r="H25" s="3" t="inlineStr"/>
     </row>
     <row r="26" ht="120" customHeight="1">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
           <t>装饰片1</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
@@ -2148,7 +2048,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -2164,20 +2064,16 @@
       <c r="H26" s="2" t="inlineStr"/>
     </row>
     <row r="27" ht="120" customHeight="1">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
+      <c r="A27" s="3" t="n">
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
           <t>装饰片2</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
@@ -2186,7 +2082,7 @@
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -2202,20 +2098,16 @@
       <c r="H27" s="3" t="inlineStr"/>
     </row>
     <row r="28" ht="120" customHeight="1">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
           <t>转接座</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
@@ -2224,7 +2116,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -2240,20 +2132,16 @@
       <c r="H28" s="2" t="inlineStr"/>
     </row>
     <row r="29" ht="120" customHeight="1">
-      <c r="A29" s="3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
+      <c r="A29" s="3" t="n">
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
           <t>转轴座</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
@@ -2262,7 +2150,7 @@
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
@@ -2278,20 +2166,16 @@
       <c r="H29" s="3" t="inlineStr"/>
     </row>
     <row r="30" ht="120" customHeight="1">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
           <t>主板</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
@@ -2300,7 +2184,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2316,20 +2200,16 @@
       <c r="H30" s="2" t="inlineStr"/>
     </row>
     <row r="31" ht="120" customHeight="1">
-      <c r="A31" s="3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="A31" s="3" t="n">
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
           <t>主壳体</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
@@ -2338,7 +2218,7 @@
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3D打印</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">

--- a/professional_CNC_log.xlsx
+++ b/professional_CNC_log.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -34,10 +34,6 @@
     </font>
     <font>
       <sz val="10"/>
-    </font>
-    <font>
-      <i val="1"/>
-      <color rgb="00999999"/>
     </font>
   </fonts>
   <fills count="4">
@@ -78,7 +74,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -88,12 +84,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,17 +317,42 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="819150" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1104900" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -358,11 +373,11 @@
     <ext cx="1323975" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -383,11 +398,11 @@
     <ext cx="990600" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -408,11 +423,11 @@
     <ext cx="1285875" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -433,11 +448,36 @@
     <ext cx="1266825" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1047750" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -458,11 +498,11 @@
     <ext cx="990600" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -483,11 +523,11 @@
     <ext cx="866775" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -508,11 +548,11 @@
     <ext cx="1143000" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -533,11 +573,11 @@
     <ext cx="923925" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -558,11 +598,11 @@
     <ext cx="876300" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -583,11 +623,11 @@
     <ext cx="742950" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -608,11 +648,11 @@
     <ext cx="1085850" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -633,11 +673,36 @@
     <ext cx="1314450" cy="942975"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1209675" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -658,11 +723,11 @@
     <ext cx="1905000" cy="600075"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -683,11 +748,11 @@
     <ext cx="1533525" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -708,11 +773,11 @@
     <ext cx="933450" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -733,11 +798,11 @@
     <ext cx="866775" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -758,11 +823,11 @@
     <ext cx="1123950" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -783,11 +848,11 @@
     <ext cx="971550" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -808,11 +873,11 @@
     <ext cx="1514475" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -833,11 +898,11 @@
     <ext cx="1209675" cy="952500"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1437,11 +1502,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
+      <c r="H8" s="2" t="inlineStr"/>
     </row>
     <row r="9" ht="120" customHeight="1">
       <c r="A9" s="3" t="n">
@@ -1645,11 +1706,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H14" s="4" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
+      <c r="H14" s="2" t="inlineStr"/>
     </row>
     <row r="15" ht="120" customHeight="1">
       <c r="A15" s="3" t="n">
@@ -1955,11 +2012,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>No Image Available</t>
-        </is>
-      </c>
+      <c r="H23" s="3" t="inlineStr"/>
     </row>
     <row r="24" ht="120" customHeight="1">
       <c r="A24" s="2" t="n">

--- a/professional_CNC_log.xlsx
+++ b/professional_CNC_log.xlsx
@@ -670,32 +670,32 @@
       <row>21</row>
       <rowOff>0</rowOff>
     </from>
+    <ext cx="1209675" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
     <ext cx="1314450" cy="942975"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>7</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1209675" cy="952500"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
